--- a/raw-data/foreign_domestic.xlsx
+++ b/raw-data/foreign_domestic.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dshap\Documents\GOV-1006\fdi_paper\raw-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E504056-2E0B-4DF5-A48A-E752029A2B43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9CC67A-B091-44C6-B786-3155731380AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0405447F-57CD-46A2-8402-5D0DA8ACA1D8}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="7">
   <si>
     <t>Type</t>
   </si>
@@ -405,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60DF5C03-2D1F-43AE-AC1E-0D2B0F14CBF4}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -432,92 +432,92 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D2">
-        <v>4.4160000000000004</v>
+        <v>3.48</v>
       </c>
       <c r="E2">
-        <v>9.1999999999999993</v>
+        <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D3">
-        <v>2.944</v>
+        <v>2.9580000000000002</v>
       </c>
       <c r="E3">
-        <v>9.1999999999999993</v>
+        <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D4">
-        <v>5.2919999999999998</v>
+        <v>4.8410000000000002</v>
       </c>
       <c r="E4">
-        <v>10.8</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5">
-        <v>3.78</v>
+        <v>3.5019999999999998</v>
       </c>
       <c r="E5">
-        <v>10.8</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D6">
-        <v>6.0759999999999996</v>
+        <v>4.1360000000000001</v>
       </c>
       <c r="E6">
-        <v>12.4</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -526,9 +526,145 @@
         <v>34</v>
       </c>
       <c r="D7">
+        <v>3.1960000000000002</v>
+      </c>
+      <c r="E7">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>2016</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>45</v>
+      </c>
+      <c r="D8">
+        <v>4.1849999999999996</v>
+      </c>
+      <c r="E8">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>2016</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>34</v>
+      </c>
+      <c r="D9">
+        <v>3.1619999999999999</v>
+      </c>
+      <c r="E9">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>2017</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>48</v>
+      </c>
+      <c r="D10">
+        <v>4.4160000000000004</v>
+      </c>
+      <c r="E10">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>2017</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>32</v>
+      </c>
+      <c r="D11">
+        <v>2.944</v>
+      </c>
+      <c r="E11">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>2018</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>49</v>
+      </c>
+      <c r="D12">
+        <v>5.2919999999999998</v>
+      </c>
+      <c r="E12">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>2018</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>35</v>
+      </c>
+      <c r="D13">
+        <v>3.78</v>
+      </c>
+      <c r="E13">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>2019</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>49</v>
+      </c>
+      <c r="D14">
+        <v>6.0759999999999996</v>
+      </c>
+      <c r="E14">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>2019</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>34</v>
+      </c>
+      <c r="D15">
         <v>4.2160000000000002</v>
       </c>
-      <c r="E7">
+      <c r="E15">
         <v>12.4</v>
       </c>
     </row>
